--- a/r-examples/olympic_games.xlsx
+++ b/r-examples/olympic_games.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="78">
   <si>
     <t>Athens</t>
   </si>
@@ -249,48 +250,17 @@
     <t>Region</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Soviet Union</t>
-    </r>
+    <t> Soviet Union</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Russia</t>
-    </r>
+    <t> Russia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,8 +276,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,8 +311,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -358,26 +356,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -395,6 +458,3366 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/6/6e/Flag_of_Greece_%281822-1978%29.svg/23px-Flag_of_Greece_%281822-1978%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="285750"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/23px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="533400"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/d/d5/Flag_of_the_United_States_%281896%E2%80%931908%29.svg/23px-Flag_of_the_United_States_%281896%E2%80%931908%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="771525"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/ae/Flag_of_the_United_Kingdom.svg/23px-Flag_of_the_United_Kingdom.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="1009650"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="https://upload.wikimedia.org/wikipedia/en/thumb/4/4c/Flag_of_Sweden.svg/23px-Flag_of_Sweden.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="1247775"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/1/1f/Flag_of_Germany_%281867%E2%80%931918%29.svg/23px-Flag_of_Germany_%281867%E2%80%931918%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="1485900"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/9/92/Flag_of_Belgium_%28civil%29.svg/23px-Flag_of_Belgium_%28civil%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="1485900"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/23px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="1724025"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/23px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="1962150"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/0/08/Flag_of_Switzerland_%28Pantone%29.svg/16px-Flag_of_Switzerland_%28Pantone%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="2209800"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/23px-Flag_of_the_Netherlands.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="2447925"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/f5/Flag_of_the_United_States_%281912-1959%29.svg/23px-Flag_of_the_United_States_%281912-1959%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="2686050"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/f5/Flag_of_the_United_States_%281912-1959%29.svg/23px-Flag_of_the_United_States_%281912-1959%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="2924175"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/7/77/Flag_of_Germany_%281935%E2%80%931945%29.svg/23px-Flag_of_Germany_%281935%E2%80%931945%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="3162300"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/7/77/Flag_of_Germany_%281935%E2%80%931945%29.svg/23px-Flag_of_Germany_%281935%E2%80%931945%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="3400425"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Flag_of_Japan_%281870%E2%80%931999%29.svg/22px-Flag_of_Japan_%281870%E2%80%931999%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="3638550"/>
+          <a:ext cx="209550" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/7/77/Flag_of_Germany_%281935%E2%80%931945%29.svg/23px-Flag_of_Germany_%281935%E2%80%931945%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="3638550"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Flag_of_Japan_%281870%E2%80%931999%29.svg/22px-Flag_of_Japan_%281870%E2%80%931999%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="3638550"/>
+          <a:ext cx="209550" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_Finland.svg/23px-Flag_of_Finland.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="3638550"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/0/0d/Flag_of_Italy_%281861-1946%29_crowned.svg/23px-Flag_of_Italy_%281861-1946%29_crowned.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="3638550"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/ae/Flag_of_the_United_Kingdom.svg/23px-Flag_of_the_United_Kingdom.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="3638550"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/0/08/Flag_of_Switzerland_%28Pantone%29.svg/16px-Flag_of_Switzerland_%28Pantone%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="3638550"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/ae/Flag_of_the_United_Kingdom.svg/23px-Flag_of_the_United_Kingdom.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="3876675"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Norway.svg/21px-Flag_of_Norway.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="4114800"/>
+          <a:ext cx="200025" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_Finland.svg/23px-Flag_of_Finland.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="4352925"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="https://upload.wikimedia.org/wikipedia/en/thumb/0/03/Flag_of_Italy.svg/23px-Flag_of_Italy.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="4591050"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/23px-Flag_of_Australia_%28converted%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="4829175"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="https://upload.wikimedia.org/wikipedia/en/thumb/4/4c/Flag_of_Sweden.svg/23px-Flag_of_Sweden.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="5067300"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/2/2d/Flag_of_the_United_States_%281959-1960%29.svg/23px-Flag_of_the_United_States_%281959-1960%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="5305425"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="https://upload.wikimedia.org/wikipedia/en/thumb/0/03/Flag_of_Italy.svg/23px-Flag_of_Italy.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="5543550"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/4/41/Flag_of_Austria.svg/23px-Flag_of_Austria.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="5781675"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Flag_of_Japan_%281870%E2%80%931999%29.svg/22px-Flag_of_Japan_%281870%E2%80%931999%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="6019800"/>
+          <a:ext cx="209550" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="https://upload.wikimedia.org/wikipedia/en/thumb/c/c3/Flag_of_France.svg/23px-Flag_of_France.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="6257925"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fc/Flag_of_Mexico.svg/23px-Flag_of_Mexico.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="6496050"/>
+          <a:ext cx="219075" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Flag_of_Japan_%281870%E2%80%931999%29.svg/22px-Flag_of_Japan_%281870%E2%80%931999%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="6734175"/>
+          <a:ext cx="209550" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="https://upload.wikimedia.org/wikipedia/en/thumb/b/ba/Flag_of_Germany.svg/23px-Flag_of_Germany.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="6972300"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/4/41/Flag_of_Austria.svg/23px-Flag_of_Austria.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="7210425"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/23px-Flag_of_Canada_%28Pantone%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="7448550"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="7686675"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/Flag_of_the_Soviet_Union.svg/23px-Flag_of_the_Soviet_Union.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="7924800"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/6/61/Flag_of_Yugoslavia_%281946-1992%29.svg/23px-Flag_of_Yugoslavia_%281946-1992%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="8162925"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="8401050"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/23px-Flag_of_Canada_%28Pantone%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="8639175"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/Flag_of_South_Korea_%281984%E2%80%931997%29.svg/23px-Flag_of_South_Korea_%281984%E2%80%931997%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="8877300"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="https://upload.wikimedia.org/wikipedia/en/thumb/c/c3/Flag_of_France.svg/23px-Flag_of_France.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="9115425"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="https://upload.wikimedia.org/wikipedia/en/thumb/9/9a/Flag_of_Spain.svg/23px-Flag_of_Spain.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="9353550"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Norway.svg/21px-Flag_of_Norway.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="9591675"/>
+          <a:ext cx="200025" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="9829800"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Flag_of_Japan_%281870%E2%80%931999%29.svg/22px-Flag_of_Japan_%281870%E2%80%931999%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="10067925"/>
+          <a:ext cx="209550" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/23px-Flag_of_Australia_%28converted%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="10306050"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="10544175"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/5/5c/Flag_of_Greece.svg/23px-Flag_of_Greece.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="10782300"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/4/41/Flag_of_Italy_%282003%E2%80%932006%29.svg/23px-Flag_of_Italy_%282003%E2%80%932006%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="11020425"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="11258550"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/23px-Flag_of_Canada_%28Pantone%29.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="11496675"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/ae/Flag_of_the_United_Kingdom.svg/23px-Flag_of_the_United_Kingdom.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="11734800"/>
+          <a:ext cx="219075" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57" descr="https://upload.wikimedia.org/wikipedia/en/thumb/f/f3/Flag_of_Russia.svg/23px-Flag_of_Russia.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="11972925"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58" descr="https://upload.wikimedia.org/wikipedia/en/thumb/0/05/Flag_of_Brazil.svg/22px-Flag_of_Brazil.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="12211050"/>
+          <a:ext cx="209550" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Flag_of_South_Korea.svg/23px-Flag_of_South_Korea.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="12449175"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60" descr="https://upload.wikimedia.org/wikipedia/en/thumb/9/9e/Flag_of_Japan.svg/23px-Flag_of_Japan.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="12687300"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png" hidden="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="12687300"/>
+          <a:ext cx="219075" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4020,12 +7443,758 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1896</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1900</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1904</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1908</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1912</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1920</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1924</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1928</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1932</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1936</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1948</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1952</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1956</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1960</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1964</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1968</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1972</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1976</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1980</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1984</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1988</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1992</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1994</v>
+      </c>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1996</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1998</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2002</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2004</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2006</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2008</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2010</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2012</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2014</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2016</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2022</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -4034,690 +8203,690 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>1896</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>1900</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>1904</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>1908</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>1912</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>1920</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>1924</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>1928</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>1932</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>1936</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>1948</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>1952</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>1956</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>1960</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>1964</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <v>1968</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>1972</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>1976</v>
       </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="6">
         <v>1980</v>
       </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <v>1984</v>
       </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <v>1988</v>
       </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <v>1992</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="5">
         <v>1994</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="5">
         <v>1996</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="5">
         <v>1998</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="5">
         <v>2000</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="5">
         <v>2002</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="5">
         <v>2004</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="5">
         <v>2006</v>
       </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="5">
         <v>2008</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="5">
         <v>2010</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="5">
         <v>2012</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="5">
         <v>2014</v>
       </c>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="5">
         <v>2016</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="5">
         <v>2018</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="5">
         <v>2022</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="2"/>
+      <c r="D55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -4740,12 +8909,12 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D20"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D2:D3"/>
